--- a/PMIS/ric-register.xlsx
+++ b/PMIS/ric-register.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\napier-mail.napier.ac.uk\students\school of computing\user data\40319172\Group-Project-Roblox-master\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAFC457-CA6D-4BBF-8E88-40F33C88ECAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -62,11 +61,47 @@
   <si>
     <t>Closure Date</t>
   </si>
+  <si>
+    <t>Reliant on everyone making the deadline</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Have weekly meetings to make sure everyone is doing work</t>
+  </si>
+  <si>
+    <t>If classes aren't balanced</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>If the game isn't fun</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>When polishing the game, make sure it's fun</t>
+  </si>
+  <si>
+    <t>When polishing the game, make sure it's balanced</t>
+  </si>
+  <si>
+    <t>Having issues on everyone working on one game</t>
+  </si>
+  <si>
+    <t>We made a teamcreate in roblox which makes the group simultaneously able to work on the project.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,37 +550,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D2" s="8"/>
-      <c r="G2" s="9" t="str">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9">
         <f>IF(C2="","",IF(C2="Risk",IF(F2="Very High",80%,IF(F2="High",65%,IF(F2="Medium",50%,IF(F2="Low",30%,IF(F2="Very Low",10%,NA())))))*E2,E2))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="8"/>
-      <c r="G3" s="9" t="str">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="0">IF(C3="","",IF(C3="Risk",IF(F3="Very High",80%,IF(F3="High",65%,IF(F3="Medium",50%,IF(F3="Low",30%,IF(F3="Very Low",10%,NA())))))*E3,E3))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="8"/>
-      <c r="G4" s="9" t="str">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="8"/>
-      <c r="G5" s="9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6543,16 +6646,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"Risk, Issue, Change"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="date" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Very High, High, Medium, Low, Very Low"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>D1</formula1>
     </dataValidation>
   </dataValidations>

--- a/PMIS/ric-register.xlsx
+++ b/PMIS/ric-register.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\napier-mail.napier.ac.uk\students\school of computing\user data\40319172\Group-Project-Roblox-master\PMIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAFC457-CA6D-4BBF-8E88-40F33C88ECAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -61,47 +62,11 @@
   <si>
     <t>Closure Date</t>
   </si>
-  <si>
-    <t>Reliant on everyone making the deadline</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Have weekly meetings to make sure everyone is doing work</t>
-  </si>
-  <si>
-    <t>If classes aren't balanced</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>If the game isn't fun</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>When polishing the game, make sure it's fun</t>
-  </si>
-  <si>
-    <t>When polishing the game, make sure it's balanced</t>
-  </si>
-  <si>
-    <t>Having issues on everyone working on one game</t>
-  </si>
-  <si>
-    <t>We made a teamcreate in roblox which makes the group simultaneously able to work on the project.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,105 +515,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8">
-        <v>43850</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="8"/>
+      <c r="G2" s="9" t="str">
         <f>IF(C2="","",IF(C2="Risk",IF(F2="Very High",80%,IF(F2="High",65%,IF(F2="Medium",50%,IF(F2="Low",30%,IF(F2="Very Low",10%,NA())))))*E2,E2))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v/>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8">
-        <v>43850</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="D3" s="8"/>
+      <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G66" si="0">IF(C3="","",IF(C3="Risk",IF(F3="Very High",80%,IF(F3="High",65%,IF(F3="Medium",50%,IF(F3="Low",30%,IF(F3="Very Low",10%,NA())))))*E3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v/>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
-        <v>43850</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="D4" s="8"/>
+      <c r="G4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8">
-        <v>43850</v>
-      </c>
-      <c r="G5" s="9">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="8"/>
+      <c r="G5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
       <c r="D6" s="8"/>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6646,16 +6543,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Risk, Issue, Change"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="date" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Very High, High, Medium, Low, Very Low"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>D1</formula1>
     </dataValidation>
   </dataValidations>

--- a/PMIS/ric-register.xlsx
+++ b/PMIS/ric-register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAFC457-CA6D-4BBF-8E88-40F33C88ECAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A83E0-C126-44D4-9FE0-C8741D4ACEA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>Closure Date</t>
+  </si>
+  <si>
+    <t>Reliant on everyone making the deadline</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Have weekly meetings to make sure everyone is doing work</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Having issues on everyone working on one game</t>
+  </si>
+  <si>
+    <t>We made a teamcreate in roblox which makes the group simultaneously able to work on the project.</t>
+  </si>
+  <si>
+    <t>Might delay our deadlines</t>
+  </si>
+  <si>
+    <t>Team members not doing any work</t>
+  </si>
+  <si>
+    <t>Talk to them as soon as possible</t>
+  </si>
+  <si>
+    <t>Having learn a new language script</t>
+  </si>
+  <si>
+    <t>Team members learning a new software to make games on</t>
+  </si>
+  <si>
+    <t>Look at tutorials to make it easier</t>
   </si>
 </sst>
 </file>
@@ -465,7 +507,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,41 +557,120 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D2" s="8"/>
-      <c r="G2" s="9" t="str">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9">
         <f>IF(C2="","",IF(C2="Risk",IF(F2="Very High",80%,IF(F2="High",65%,IF(F2="Medium",50%,IF(F2="Low",30%,IF(F2="Very Low",10%,NA())))))*E2,E2))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="8"/>
-      <c r="G3" s="9" t="str">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="0">IF(C3="","",IF(C3="Risk",IF(F3="Very High",80%,IF(F3="High",65%,IF(F3="Medium",50%,IF(F3="Low",30%,IF(F3="Very Low",10%,NA())))))*E3,E3))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="8"/>
-      <c r="G4" s="9" t="str">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43850</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="8"/>
-      <c r="G5" s="9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="8"/>
-      <c r="G6" s="9" t="str">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43867</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="8"/>
     </row>
